--- a/src/main/java/net/clementlevallois/umigon/heuristics/resources/en/en.xlsx
+++ b/src/main/java/net/clementlevallois/umigon/heuristics/resources/en/en.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levallois\Google Drive\open\UmigonLambda\heuristics\src\main\java\net\clementlevallois\umigon\heuristics\resources\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levallois\Google Drive\open\UmigonLambda\umigon-heuristics\src\main\java\net\clementlevallois\umigon\heuristics\resources\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0BD853-2659-4C50-9367-BA95C33DE239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC401F9-5424-40CD-BF7E-14878DED774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="871" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5396" uniqueCount="1802">
   <si>
     <t>"</t>
   </si>
@@ -5444,6 +5444,18 @@
   </si>
   <si>
     <t>if(A &amp;&amp; B &amp;&amp; C) {11} else{0}</t>
+  </si>
+  <si>
+    <t>dont care</t>
+  </si>
+  <si>
+    <t>don t care</t>
+  </si>
+  <si>
+    <t>doesn t care</t>
+  </si>
+  <si>
+    <t>doesnt care</t>
   </si>
 </sst>
 </file>
@@ -5859,7 +5871,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6183,7 +6195,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.81640625" customWidth="1"/>
@@ -6280,7 +6292,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="38.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="38.453125" style="1"/>
   </cols>
@@ -6884,7 +6896,7 @@
       <selection sqref="A1:A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -7296,7 +7308,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7375,7 +7387,7 @@
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.1796875" style="2"/>
@@ -7798,7 +7810,7 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="2"/>
     <col min="2" max="2" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -8050,7 +8062,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8133,7 +8145,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8156,7 +8168,7 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -8246,7 +8258,7 @@
       <selection activeCell="C265" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.81640625" style="1" customWidth="1"/>
@@ -9249,7 +9261,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>581</v>
       </c>
@@ -9263,7 +9275,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>580</v>
       </c>
@@ -9848,7 +9860,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>1253</v>
       </c>
@@ -13415,13 +13427,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I818"/>
+  <dimension ref="A1:I822"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6328125" style="1" customWidth="1"/>
@@ -13924,7 +13936,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>709</v>
       </c>
@@ -14075,7 +14087,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>337</v>
       </c>
@@ -16124,29 +16136,29 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>409</v>
+        <v>1800</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>1143</v>
+        <v>1801</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>1026</v>
+        <v>409</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>1088</v>
@@ -16157,7 +16169,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>1513</v>
+        <v>1143</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>1088</v>
@@ -16168,7 +16180,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>1514</v>
+        <v>1026</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>1088</v>
@@ -16179,7 +16191,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>1415</v>
+        <v>1513</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>1088</v>
@@ -16190,7 +16202,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>1196</v>
+        <v>1514</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>1088</v>
@@ -16201,7 +16213,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>1515</v>
+        <v>1415</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>1088</v>
@@ -16212,85 +16224,85 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>156</v>
+        <v>1196</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>156</v>
+        <v>1515</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>1517</v>
+        <v>882</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E212" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>1027</v>
+        <v>1516</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E213" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>1241</v>
+        <v>1798</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>1518</v>
+        <v>1799</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>1028</v>
+        <v>1517</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>1088</v>
@@ -16301,7 +16313,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>1519</v>
+        <v>1027</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>1088</v>
@@ -16312,7 +16324,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>1197</v>
+        <v>1241</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>1088</v>
@@ -16323,7 +16335,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>1088</v>
@@ -16334,21 +16346,18 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>1440</v>
+        <v>1028</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1072</v>
+        <v>1519</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>1088</v>
@@ -16359,35 +16368,29 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>1072</v>
+        <v>1197</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>1072</v>
+        <v>1520</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>1218</v>
+        <v>1440</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>1088</v>
@@ -16398,7 +16401,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>1075</v>
+        <v>240</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>1072</v>
@@ -16407,12 +16410,15 @@
         <v>1088</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>957</v>
+        <v>801</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>1088</v>
@@ -16423,7 +16429,10 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>1076</v>
+        <v>802</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>1088</v>
@@ -16434,96 +16443,90 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>1702</v>
+        <v>1218</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>1703</v>
+        <v>1075</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>1707</v>
+        <v>957</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>936</v>
+        <v>1076</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>1554</v>
+        <v>1702</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>1072</v>
+        <v>1703</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>1548</v>
+        <v>1706</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1707</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>1072</v>
+        <v>936</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>1088</v>
@@ -16532,21 +16535,15 @@
         <v>1426</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1072</v>
+        <v>1554</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>1735</v>
@@ -16554,29 +16551,32 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>804</v>
+        <v>937</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>1625</v>
+      <c r="A238" s="1" t="s">
+        <v>1548</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>1312</v>
+        <v>893</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>1072</v>
@@ -16584,49 +16584,55 @@
       <c r="C239" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E239" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>872</v>
+        <v>436</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D240" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E240" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>677</v>
+        <v>804</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>1072</v>
+      <c r="A242" t="s">
+        <v>1625</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>1721</v>
+        <v>1312</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>1072</v>
@@ -16635,29 +16641,23 @@
         <v>1088</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>1072</v>
+        <v>872</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>1072</v>
+        <v>677</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>1088</v>
@@ -16668,24 +16668,24 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>447</v>
+        <v>1072</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E246" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>1580</v>
+        <v>1721</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>1088</v>
@@ -16696,7 +16696,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
-        <v>721</v>
+        <v>358</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>1088</v>
@@ -16707,24 +16710,30 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
-        <v>1173</v>
+        <v>342</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
-        <v>1223</v>
+        <v>712</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1072</v>
+        <v>447</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>1733</v>
@@ -16732,24 +16741,18 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1072</v>
+        <v>1580</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>1072</v>
+        <v>721</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>1088</v>
@@ -16758,129 +16761,129 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>1072</v>
+        <v>1173</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
-        <v>586</v>
+        <v>1223</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
-        <v>1391</v>
+        <v>865</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="3" t="s">
-        <v>587</v>
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1023</v>
+        <v>1072</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1475</v>
+        <v>1088</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
-        <v>429</v>
+        <v>586</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1023</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1072</v>
+        <v>1217</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>1072</v>
+        <v>1391</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="1" t="s">
-        <v>296</v>
+      <c r="A261" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1023</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1088</v>
+        <v>1475</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
-        <v>1046</v>
+        <v>429</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>1735</v>
@@ -16888,7 +16891,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
-        <v>1716</v>
+        <v>720</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>1072</v>
@@ -16902,21 +16905,21 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
-        <v>1646</v>
+        <v>632</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1072</v>
+        <v>296</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>1088</v>
@@ -16927,18 +16930,24 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
-        <v>1565</v>
+        <v>1046</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D266" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E266" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
-        <v>1713</v>
+        <v>1716</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>1088</v>
@@ -16949,30 +16958,24 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>1072</v>
+        <v>1646</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
-        <v>847</v>
+        <v>564</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1445</v>
+        <v>1072</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>1735</v>
@@ -16980,24 +16983,21 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
-        <v>1613</v>
+        <v>1565</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1212</v>
+        <v>1713</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1777</v>
+        <v>1088</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>1735</v>
@@ -17005,7 +17005,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
-        <v>1768</v>
+        <v>970</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>1088</v>
@@ -17016,7 +17019,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
-        <v>932</v>
+        <v>847</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1445</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>1088</v>
@@ -17028,85 +17034,76 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>1793</v>
+        <v>1613</v>
       </c>
       <c r="C274" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="E275" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>1072</v>
+        <v>1768</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E276" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>1072</v>
+        <v>932</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E277" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
-        <v>1294</v>
+        <v>761</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1072</v>
+        <v>1793</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1088</v>
+        <v>1777</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
-        <v>1295</v>
+        <v>1413</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>1072</v>
@@ -17115,12 +17112,12 @@
         <v>1088</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
-        <v>378</v>
+        <v>762</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>1072</v>
@@ -17132,21 +17129,18 @@
         <v>1426</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
-        <v>1077</v>
+        <v>791</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>1735</v>
@@ -17154,7 +17148,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
-        <v>446</v>
+        <v>1294</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>1072</v>
@@ -17163,40 +17157,52 @@
         <v>1088</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
-        <v>1551</v>
+        <v>1295</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
-        <v>1258</v>
+        <v>378</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D284" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E284" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
-        <v>910</v>
+        <v>1077</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>1735</v>
@@ -17204,7 +17210,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
-        <v>910</v>
+        <v>446</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>1072</v>
@@ -17213,60 +17219,48 @@
         <v>1088</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>1072</v>
+        <v>1551</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1379</v>
+        <v>1258</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D288" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E288" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
-        <v>128</v>
+        <v>910</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1379</v>
+        <v>1072</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D289" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E289" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>1072</v>
@@ -17275,26 +17269,35 @@
         <v>1088</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
-        <v>829</v>
+        <v>909</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
-        <v>830</v>
+        <v>42</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>1734</v>
@@ -17302,7 +17305,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>519</v>
+        <v>128</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>1088</v>
@@ -17316,16 +17322,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
-        <v>1217</v>
+        <v>947</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1379</v>
+        <v>1072</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>1734</v>
@@ -17333,16 +17336,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>1379</v>
+        <v>829</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>1734</v>
@@ -17350,10 +17347,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1072</v>
+        <v>830</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>1088</v>
@@ -17364,10 +17358,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
-        <v>1634</v>
+        <v>519</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>1734</v>
@@ -17375,10 +17372,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
-        <v>1635</v>
+        <v>1217</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>1734</v>
@@ -17386,7 +17389,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
-        <v>1636</v>
+        <v>1112</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>1088</v>
@@ -17400,7 +17406,10 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
-        <v>248</v>
+        <v>1633</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>1088</v>
@@ -17411,24 +17420,18 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>1072</v>
+        <v>1634</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D301" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E301" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
-        <v>911</v>
+        <v>1635</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>1088</v>
@@ -17439,7 +17442,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
-        <v>1045</v>
+        <v>1636</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>1088</v>
@@ -17448,12 +17451,12 @@
         <v>1426</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
-        <v>1562</v>
+        <v>248</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>1088</v>
@@ -17464,10 +17467,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
-        <v>303</v>
+        <v>1348</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>1735</v>
@@ -17475,24 +17484,24 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
-        <v>1078</v>
+        <v>911</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>1735</v>
@@ -17500,32 +17509,29 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1072</v>
+        <v>1562</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
-        <v>1557</v>
+        <v>303</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
-        <v>1705</v>
+        <v>1078</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>1088</v>
@@ -17535,30 +17541,36 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>1383</v>
+      <c r="A311" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
-        <v>1235</v>
+        <v>621</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
-        <v>377</v>
+        <v>1557</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>1088</v>
@@ -17569,24 +17581,18 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>1570</v>
+        <v>1705</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A315" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>1570</v>
+      <c r="A315" t="s">
+        <v>1383</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>1088</v>
@@ -17597,60 +17603,57 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
-        <v>1567</v>
+        <v>1235</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
-        <v>527</v>
+        <v>377</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
-        <v>623</v>
+        <v>1264</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1072</v>
+        <v>1570</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D318" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E318" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
-        <v>520</v>
+        <v>1568</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1072</v>
+        <v>1570</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
-        <v>276</v>
+        <v>1567</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>1088</v>
@@ -17661,18 +17664,21 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
-        <v>1521</v>
+        <v>527</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A322" s="2" t="s">
-        <v>982</v>
+      <c r="A322" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>1088</v>
@@ -17685,8 +17691,11 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A323" s="2" t="s">
-        <v>1553</v>
+      <c r="A323" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>1088</v>
@@ -17696,8 +17705,8 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A324" s="2" t="s">
-        <v>1599</v>
+      <c r="A324" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>1088</v>
@@ -17708,21 +17717,18 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>1072</v>
+        <v>1521</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A326" s="1" t="s">
-        <v>1042</v>
+      <c r="A326" s="2" t="s">
+        <v>982</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>1088</v>
@@ -17731,15 +17737,12 @@
         <v>1426</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>1072</v>
+      <c r="A327" s="2" t="s">
+        <v>1553</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>1088</v>
@@ -17749,33 +17752,39 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A328" s="1" t="s">
-        <v>1096</v>
+      <c r="A328" s="2" t="s">
+        <v>1599</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
-        <v>1155</v>
+        <v>1311</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
-        <v>1669</v>
+        <v>1042</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>1734</v>
@@ -17783,29 +17792,32 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
-        <v>1670</v>
+        <v>366</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
-        <v>1575</v>
+        <v>1096</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>1263</v>
+      <c r="A333" s="1" t="s">
+        <v>1155</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>1088</v>
@@ -17814,118 +17826,112 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1786</v>
+        <v>1669</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>1426</v>
+        <v>1088</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
-        <v>1579</v>
+        <v>1670</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
-        <v>195</v>
+        <v>1575</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D336" s="2" t="s">
+      <c r="E336" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D338" s="2" t="s">
         <v>1426</v>
       </c>
-      <c r="E336" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A337" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D337" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E337" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A338" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="E338" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>1072</v>
+        <v>1579</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
-        <v>775</v>
+        <v>195</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D340" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E340" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
-        <v>776</v>
+        <v>915</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>1451</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1088</v>
+        <v>1779</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
-        <v>780</v>
+        <v>1097</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>1072</v>
@@ -17934,37 +17940,37 @@
         <v>1088</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
-        <v>1236</v>
+        <v>179</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
-        <v>1240</v>
+        <v>775</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>1072</v>
+        <v>776</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>1088</v>
@@ -17975,7 +17981,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
-        <v>1079</v>
+        <v>780</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1072</v>
@@ -17989,27 +17995,21 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
-        <v>1261</v>
+        <v>1236</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>1522</v>
+        <v>1240</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>1426</v>
+        <v>1088</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>1733</v>
@@ -18017,7 +18017,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
-        <v>959</v>
+        <v>173</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1072</v>
@@ -18026,12 +18026,12 @@
         <v>1088</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
-        <v>1523</v>
+        <v>1079</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1072</v>
@@ -18040,40 +18040,40 @@
         <v>1088</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
-        <v>1615</v>
+        <v>1261</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
-        <v>1113</v>
+        <v>938</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1072</v>
+        <v>1522</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1088</v>
+        <v>1775</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>1426</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
-        <v>1019</v>
+        <v>959</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1072</v>
@@ -18082,12 +18082,12 @@
         <v>1088</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
-        <v>1213</v>
+        <v>1523</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1072</v>
@@ -18101,24 +18101,27 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>1071</v>
+        <v>1615</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
-        <v>1524</v>
+        <v>1113</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>1734</v>
@@ -18126,18 +18129,21 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
-        <v>648</v>
+        <v>1019</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
-        <v>986</v>
+        <v>1213</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>1072</v>
@@ -18146,15 +18152,15 @@
         <v>1088</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
-        <v>1080</v>
+        <v>622</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>1088</v>
@@ -18165,21 +18171,18 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>1072</v>
+        <v>1524</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
-        <v>1013</v>
+        <v>648</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>1088</v>
@@ -18190,7 +18193,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
-        <v>1018</v>
+        <v>986</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>1072</v>
@@ -18204,18 +18207,21 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
-        <v>1555</v>
+        <v>1080</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
-        <v>57</v>
+        <v>1012</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1072</v>
@@ -18224,37 +18230,37 @@
         <v>1088</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
-        <v>1582</v>
+        <v>1018</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>1072</v>
+        <v>1555</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>1088</v>
@@ -18265,7 +18271,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
-        <v>1452</v>
+        <v>57</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>1072</v>
@@ -18279,43 +18285,43 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>1526</v>
+        <v>1041</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
-        <v>1556</v>
+        <v>1582</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
-        <v>1597</v>
+        <v>426</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
-        <v>753</v>
+        <v>1452</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>1072</v>
@@ -18323,33 +18329,27 @@
       <c r="C372" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D372" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E372" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
-        <v>753</v>
+        <v>1525</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1072</v>
+        <v>1526</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>1072</v>
+        <v>1556</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>1088</v>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
-        <v>1239</v>
+        <v>1597</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>1088</v>
@@ -18371,10 +18371,16 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
-        <v>1527</v>
+        <v>753</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>1735</v>
@@ -18382,51 +18388,57 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
-        <v>1238</v>
+        <v>753</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
-        <v>1528</v>
+        <v>754</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>1088</v>
@@ -18437,7 +18449,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
-        <v>1227</v>
+        <v>1528</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>1088</v>
@@ -18448,18 +18460,18 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
-        <v>1230</v>
+        <v>1237</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
-        <v>1229</v>
+        <v>1529</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>1088</v>
@@ -18470,7 +18482,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1088</v>
@@ -18481,35 +18493,29 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>1072</v>
+        <v>1227</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>1072</v>
+        <v>1230</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
-        <v>215</v>
+        <v>1229</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1088</v>
@@ -18520,29 +18526,35 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
-        <v>155</v>
+        <v>1228</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
-        <v>1710</v>
+        <v>770</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
-        <v>972</v>
+        <v>799</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>1088</v>
@@ -18553,21 +18565,18 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
-        <v>971</v>
+        <v>215</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>1072</v>
+        <v>155</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1088</v>
@@ -18578,13 +18587,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>1072</v>
+        <v>1710</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1757</v>
+        <v>1088</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>1735</v>
@@ -18592,21 +18598,18 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>1072</v>
+        <v>972</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
-        <v>193</v>
+        <v>971</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>1088</v>
@@ -18617,7 +18620,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
-        <v>733</v>
+        <v>1412</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1072</v>
@@ -18626,45 +18629,51 @@
         <v>1088</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
-        <v>1593</v>
+        <v>256</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1088</v>
+        <v>1757</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
-        <v>1722</v>
+        <v>192</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
-        <v>1530</v>
+        <v>193</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
-        <v>1081</v>
+        <v>733</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>1072</v>
@@ -18673,26 +18682,23 @@
         <v>1088</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>1072</v>
+        <v>1593</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
-        <v>1643</v>
+        <v>1722</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>1088</v>
@@ -18703,7 +18709,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
-        <v>1642</v>
+        <v>1530</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>1088</v>
@@ -18714,7 +18720,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
-        <v>1619</v>
+        <v>1081</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>1072</v>
@@ -18723,12 +18729,12 @@
         <v>1088</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
-        <v>963</v>
+        <v>889</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>1072</v>
@@ -18737,12 +18743,12 @@
         <v>1088</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>1088</v>
@@ -18753,18 +18759,18 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
-        <v>749</v>
+        <v>1642</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
-        <v>1720</v>
+        <v>1619</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>1072</v>
@@ -18773,12 +18779,12 @@
         <v>1088</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
-        <v>1363</v>
+        <v>963</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>1072</v>
@@ -18787,23 +18793,23 @@
         <v>1088</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
-        <v>558</v>
+        <v>1641</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
-        <v>127</v>
+        <v>749</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>1088</v>
@@ -18814,7 +18820,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
-        <v>988</v>
+        <v>1720</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1072</v>
@@ -18823,23 +18829,26 @@
         <v>1088</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
-        <v>1672</v>
+        <v>1363</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
-        <v>918</v>
+        <v>558</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>1088</v>
@@ -18850,82 +18859,79 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>1072</v>
+        <v>127</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
-        <v>1603</v>
+        <v>988</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
-        <v>1711</v>
+        <v>1672</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
-        <v>1450</v>
+        <v>918</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
-        <v>444</v>
+        <v>1316</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>445</v>
+        <v>1072</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D420" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E420" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
-        <v>427</v>
+        <v>1603</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
-        <v>1100</v>
+        <v>1711</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>1088</v>
@@ -18936,43 +18942,46 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
-        <v>716</v>
+        <v>1450</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
-        <v>717</v>
+        <v>444</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D424" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E424" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
-        <v>877</v>
+        <v>427</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D425" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E425" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
-        <v>1668</v>
+        <v>1100</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>1088</v>
@@ -18983,60 +18992,54 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>1072</v>
+        <v>716</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
-        <v>235</v>
+        <v>717</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D428" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E428" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
-        <v>1598</v>
+        <v>877</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E429" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>1072</v>
+        <v>1668</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
-        <v>1222</v>
+        <v>428</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>1072</v>
@@ -19050,38 +19053,38 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D432" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E432" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
-        <v>1130</v>
+        <v>1598</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
-        <v>1424</v>
+        <v>1221</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1425</v>
+        <v>1072</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D434" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>1733</v>
@@ -19089,43 +19092,52 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
-        <v>1170</v>
+        <v>1222</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
-        <v>1559</v>
+        <v>279</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
-        <v>1135</v>
+        <v>1424</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1425</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>1733</v>
@@ -19133,180 +19145,165 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
-        <v>1137</v>
+        <v>1170</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>1072</v>
+        <v>1559</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E440" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E441" s="2" t="s">
         <v>1733</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A441" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
-        <v>1063</v>
+        <v>1135</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
-        <v>1064</v>
+        <v>1137</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
-        <v>1061</v>
+        <v>960</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
-        <v>1062</v>
+        <v>642</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1088</v>
+        <v>1779</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="C446" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
-        <v>853</v>
+        <v>1064</v>
       </c>
       <c r="C447" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D447" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E447" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
-        <v>1581</v>
+        <v>1061</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>445</v>
+        <v>1062</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D449" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E449" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
-        <v>946</v>
+        <v>643</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>1531</v>
+        <v>1072</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1794</v>
+        <v>1088</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>1570</v>
+        <v>853</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E451" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>1072</v>
+        <v>1581</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>1088</v>
@@ -19315,12 +19312,12 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
-        <v>263</v>
+        <v>731</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>1762</v>
+        <v>445</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>1088</v>
@@ -19332,15 +19329,15 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1072</v>
+        <v>1531</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1088</v>
+        <v>1794</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>1735</v>
@@ -19348,21 +19345,21 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
-        <v>546</v>
+        <v>1574</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1072</v>
+        <v>1570</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
-        <v>976</v>
+        <v>1338</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>1072</v>
@@ -19374,12 +19371,18 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
-        <v>974</v>
+        <v>263</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1762</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>1735</v>
@@ -19387,7 +19390,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>1072</v>
@@ -19401,43 +19404,46 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
-        <v>1205</v>
+        <v>546</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C459" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
-        <v>1121</v>
+        <v>976</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>1072</v>
+        <v>974</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
-        <v>920</v>
+        <v>973</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>1072</v>
@@ -19451,29 +19457,29 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="C463" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>389</v>
+        <v>1121</v>
       </c>
       <c r="C464" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
-        <v>735</v>
+        <v>1296</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>1072</v>
@@ -19481,16 +19487,13 @@
       <c r="C465" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D465" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E465" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
-        <v>996</v>
+        <v>920</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>1072</v>
@@ -19504,7 +19507,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
-        <v>993</v>
+        <v>1198</v>
       </c>
       <c r="C467" s="1" t="s">
         <v>1088</v>
@@ -19515,10 +19518,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>1072</v>
+        <v>389</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>1088</v>
@@ -19529,13 +19529,16 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
-        <v>694</v>
+        <v>735</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="C469" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>1735</v>
@@ -19543,7 +19546,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>1072</v>
@@ -19557,87 +19560,96 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
-        <v>667</v>
+        <v>993</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
-        <v>668</v>
+        <v>978</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>1433</v>
+        <v>694</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E473" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>1630</v>
+        <v>992</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1379</v>
+        <v>1072</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E474" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
-        <v>1134</v>
+        <v>667</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>1532</v>
+        <v>668</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E476" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>1533</v>
+        <v>1433</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E477" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>1329</v>
+        <v>1630</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>1088</v>
@@ -19648,7 +19660,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>1331</v>
+        <v>1134</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>1088</v>
@@ -19659,7 +19671,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>1341</v>
+        <v>1532</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>1088</v>
@@ -19670,18 +19682,18 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>1443</v>
+        <v>1533</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>1088</v>
@@ -19692,7 +19704,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>1088</v>
@@ -19703,32 +19715,29 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
-        <v>1101</v>
+        <v>1341</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E484" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>1072</v>
+        <v>1443</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E485" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
-        <v>955</v>
+        <v>1330</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>1088</v>
@@ -19739,7 +19748,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
-        <v>1590</v>
+        <v>1328</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>1088</v>
@@ -19750,18 +19759,18 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
-        <v>1763</v>
+        <v>1101</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E488" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
-        <v>1305</v>
+        <v>990</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>1072</v>
@@ -19770,51 +19779,45 @@
         <v>1088</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>1072</v>
+        <v>955</v>
       </c>
       <c r="C490" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E490" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>1072</v>
+        <v>1590</v>
       </c>
       <c r="C491" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E491" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
-        <v>1108</v>
+        <v>1763</v>
       </c>
       <c r="C492" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E492" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
-        <v>1106</v>
+        <v>1305</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>1072</v>
@@ -19828,7 +19831,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
-        <v>1304</v>
+        <v>1105</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>1072</v>
@@ -19837,12 +19840,12 @@
         <v>1088</v>
       </c>
       <c r="E494" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
-        <v>1303</v>
+        <v>1107</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>1072</v>
@@ -19856,21 +19859,18 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>1072</v>
+        <v>1108</v>
       </c>
       <c r="C496" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
-        <v>1310</v>
+        <v>1106</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>1072</v>
@@ -19879,21 +19879,18 @@
         <v>1088</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
-        <v>237</v>
+        <v>1304</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1429</v>
+        <v>1072</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>1426</v>
+        <v>1088</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>1733</v>
@@ -19901,18 +19898,24 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
-        <v>241</v>
+        <v>1303</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C499" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
-        <v>425</v>
+        <v>399</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>1088</v>
@@ -19921,226 +19924,229 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
-        <v>1092</v>
+        <v>1310</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C501" s="5" t="s">
-        <v>1777</v>
+        <v>1072</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1088</v>
       </c>
       <c r="E501" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
-        <v>906</v>
+        <v>237</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C502" s="5" t="s">
-        <v>1795</v>
+        <v>1429</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A503" t="s">
-        <v>295</v>
+      <c r="A503" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
-        <v>965</v>
+        <v>425</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
-        <v>107</v>
+        <v>1092</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D505" s="2" t="s">
-        <v>1426</v>
+        <v>1764</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>1777</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>1088</v>
+        <v>906</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>1795</v>
       </c>
       <c r="E506" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A507" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1072</v>
+      <c r="A507" t="s">
+        <v>295</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E507" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1072</v>
+        <v>965</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
-        <v>265</v>
+        <v>107</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C509" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D509" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E509" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
-        <v>579</v>
+        <v>1160</v>
       </c>
       <c r="C510" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
-        <v>578</v>
+        <v>1289</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C511" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
-        <v>264</v>
+        <v>1290</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C512" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="C513" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D513" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E513" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
-        <v>1044</v>
+        <v>579</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
-        <v>1577</v>
+        <v>578</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D516" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E516" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
-        <v>1534</v>
+        <v>836</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D517" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E517" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
-        <v>132</v>
+        <v>1044</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>1088</v>
@@ -20151,51 +20157,57 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
-        <v>422</v>
+        <v>1577</v>
       </c>
       <c r="C519" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
-        <v>852</v>
+        <v>108</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C520" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D520" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E520" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
-        <v>933</v>
+        <v>1534</v>
       </c>
       <c r="C521" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
-        <v>1381</v>
+        <v>132</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
-        <v>1147</v>
+        <v>422</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>1088</v>
@@ -20206,7 +20218,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
-        <v>214</v>
+        <v>852</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>1088</v>
@@ -20215,26 +20227,20 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>1447</v>
+        <v>933</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D525" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E525" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
-        <v>555</v>
+        <v>1381</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>1088</v>
@@ -20245,144 +20251,132 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
-        <v>1583</v>
+        <v>1147</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>1072</v>
+        <v>214</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
-        <v>810</v>
+        <v>913</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1072</v>
+        <v>1447</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D529" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E529" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
-        <v>1535</v>
+        <v>555</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
-        <v>706</v>
+        <v>1583</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
-        <v>705</v>
+        <v>809</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D532" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E532" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
-        <v>1047</v>
+        <v>810</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D533" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E533" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>891</v>
+        <v>1535</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D534" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E534" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>1072</v>
+        <v>706</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>1072</v>
+        <v>705</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D536" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E536" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1129</v>
+        <v>1047</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>1088</v>
@@ -20396,7 +20390,10 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
-        <v>402</v>
+        <v>890</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="C538" s="1" t="s">
         <v>1088</v>
@@ -20410,7 +20407,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
-        <v>790</v>
+        <v>229</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>1072</v>
@@ -20419,12 +20416,12 @@
         <v>1088</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
-        <v>1267</v>
+        <v>812</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1072</v>
@@ -20438,21 +20435,30 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
-        <v>1601</v>
+        <v>1128</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1129</v>
       </c>
       <c r="C541" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D541" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E541" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
-        <v>1109</v>
+        <v>402</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>1735</v>
@@ -20460,7 +20466,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
-        <v>222</v>
+        <v>790</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>1072</v>
@@ -20474,7 +20480,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
-        <v>221</v>
+        <v>1267</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>1072</v>
@@ -20488,7 +20494,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
-        <v>563</v>
+        <v>1601</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>1088</v>
@@ -20499,7 +20505,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
-        <v>1675</v>
+        <v>1109</v>
       </c>
       <c r="C546" s="1" t="s">
         <v>1088</v>
@@ -20510,7 +20516,10 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
-        <v>1584</v>
+        <v>222</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>1088</v>
@@ -20521,7 +20530,10 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
-        <v>1586</v>
+        <v>221</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>1088</v>
@@ -20532,18 +20544,18 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
-        <v>1766</v>
+        <v>563</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
-        <v>1767</v>
+        <v>1675</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>1088</v>
@@ -20554,7 +20566,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
-        <v>1561</v>
+        <v>1584</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>1088</v>
@@ -20565,60 +20577,54 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
-        <v>1558</v>
+        <v>1586</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E552" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
-        <v>1146</v>
+        <v>1766</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E553" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
-        <v>1673</v>
+        <v>1767</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E554" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>1072</v>
+        <v>1561</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E555" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
-        <v>908</v>
+        <v>1558</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D556" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>1734</v>
@@ -20626,7 +20632,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
-        <v>1552</v>
+        <v>1146</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>1088</v>
@@ -20637,54 +20643,60 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>1072</v>
+        <v>1673</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E558" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
-        <v>1708</v>
+        <v>719</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E559" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
-        <v>1195</v>
+        <v>908</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D560" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E560" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
-        <v>396</v>
+        <v>1552</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E561" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
-        <v>1664</v>
+        <v>803</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>1088</v>
@@ -20695,7 +20707,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
-        <v>1442</v>
+        <v>1708</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>1088</v>
@@ -20706,38 +20718,32 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
-        <v>1335</v>
+        <v>1195</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E564" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>1430</v>
+        <v>396</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1796</v>
+        <v>1088</v>
       </c>
       <c r="E565" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>1430</v>
+        <v>1664</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1796</v>
+        <v>1088</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>1735</v>
@@ -20745,62 +20751,68 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
-        <v>935</v>
+        <v>1442</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E567" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
-        <v>868</v>
+        <v>1335</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E568" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
-        <v>624</v>
+        <v>871</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1430</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1088</v>
+        <v>1796</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
-        <v>1712</v>
+        <v>521</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1430</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1088</v>
+        <v>1796</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
-        <v>956</v>
+        <v>935</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E571" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
-        <v>1611</v>
+        <v>868</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>1088</v>
@@ -20811,68 +20823,65 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
-        <v>1612</v>
+        <v>624</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E573" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
-        <v>390</v>
+        <v>1712</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E574" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
-        <v>1082</v>
+        <v>956</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E575" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
-        <v>1083</v>
+        <v>1611</v>
       </c>
       <c r="C576" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E576" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
-        <v>1094</v>
+        <v>1612</v>
       </c>
       <c r="C577" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E577" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
-        <v>1199</v>
+        <v>390</v>
       </c>
       <c r="C578" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D578" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>1735</v>
@@ -20880,18 +20889,18 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
-        <v>747</v>
+        <v>1082</v>
       </c>
       <c r="C579" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E579" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
-        <v>1374</v>
+        <v>1083</v>
       </c>
       <c r="C580" s="1" t="s">
         <v>1088</v>
@@ -20901,113 +20910,116 @@
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A581" t="s">
-        <v>1411</v>
+      <c r="A581" s="1" t="s">
+        <v>1094</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E581" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
-        <v>522</v>
+        <v>1199</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D582" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E582" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>1072</v>
+        <v>747</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E583" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>1072</v>
+        <v>1374</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E584" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A585" s="1" t="s">
-        <v>523</v>
+      <c r="A585" t="s">
+        <v>1411</v>
       </c>
       <c r="C585" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E585" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
-        <v>1726</v>
+        <v>522</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1088</v>
       </c>
       <c r="E586" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
-        <v>1725</v>
+        <v>784</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C587" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E587" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
-        <v>788</v>
+        <v>162</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C588" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E588" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
-        <v>5</v>
+        <v>523</v>
       </c>
       <c r="C589" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E589" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>1088</v>
+        <v>1726</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>1735</v>
@@ -21015,7 +21027,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
-        <v>896</v>
+        <v>1725</v>
       </c>
       <c r="C591" s="1" t="s">
         <v>1088</v>
@@ -21026,32 +21038,29 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
-        <v>278</v>
+        <v>788</v>
       </c>
       <c r="C592" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
-        <v>764</v>
+        <v>5</v>
       </c>
       <c r="C593" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D593" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E593" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
-        <v>55</v>
+        <v>528</v>
       </c>
       <c r="C594" s="1" t="s">
         <v>1088</v>
@@ -21062,32 +21071,35 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
-        <v>439</v>
+        <v>896</v>
       </c>
       <c r="C595" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E595" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
-        <v>656</v>
+        <v>278</v>
       </c>
       <c r="C596" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E596" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
-        <v>1622</v>
+        <v>764</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>1735</v>
@@ -21095,18 +21107,18 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
-        <v>383</v>
+        <v>55</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E598" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>1088</v>
@@ -21117,7 +21129,7 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
-        <v>786</v>
+        <v>656</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>1088</v>
@@ -21128,96 +21140,87 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
-        <v>1087</v>
+        <v>1622</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
-        <v>1089</v>
+        <v>383</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>1072</v>
+        <v>384</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
-        <v>410</v>
+        <v>786</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D605" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E605" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>1072</v>
+        <v>1089</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
-        <v>1053</v>
+        <v>1268</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C607" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
-        <v>1276</v>
+        <v>410</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>1088</v>
@@ -21228,18 +21231,27 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
-        <v>1657</v>
+        <v>260</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D609" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E609" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
-        <v>777</v>
+        <v>1274</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>1088</v>
@@ -21250,7 +21262,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
-        <v>1617</v>
+        <v>1053</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>1088</v>
@@ -21261,7 +21273,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
-        <v>1618</v>
+        <v>1276</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>1088</v>
@@ -21272,7 +21284,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
-        <v>1387</v>
+        <v>1657</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>1088</v>
@@ -21283,18 +21295,18 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
-        <v>539</v>
+        <v>777</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E614" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
-        <v>538</v>
+        <v>1617</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>1088</v>
@@ -21305,10 +21317,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>1072</v>
+        <v>1618</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>1088</v>
@@ -21319,48 +21328,40 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>1072</v>
+        <v>1387</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>1072</v>
+        <v>539</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E618" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="619" spans="1:5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B619" s="1"/>
+        <v>538</v>
+      </c>
       <c r="C619" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D619" s="1"/>
-      <c r="E619" s="1" t="s">
+      <c r="E619" s="2" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
-        <v>1308</v>
+        <v>795</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>1072</v>
@@ -21369,23 +21370,26 @@
         <v>1088</v>
       </c>
       <c r="E620" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
-        <v>56</v>
+        <v>1678</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E621" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
-        <v>448</v>
+        <v>1214</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>1072</v>
@@ -21397,42 +21401,47 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B623" s="1"/>
       <c r="C623" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="E623" s="2" t="s">
+      <c r="D623" s="1"/>
+      <c r="E623" s="1" t="s">
         <v>1734</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
-        <v>1386</v>
+        <v>1308</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C624" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E624" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
-        <v>1384</v>
+        <v>56</v>
       </c>
       <c r="C625" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E625" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
-        <v>537</v>
+        <v>448</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>1072</v>
@@ -21441,40 +21450,34 @@
         <v>1088</v>
       </c>
       <c r="E626" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
-        <v>1163</v>
+        <v>62</v>
       </c>
       <c r="C627" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E627" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>1072</v>
+        <v>1386</v>
       </c>
       <c r="C628" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E628" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>1072</v>
+        <v>1384</v>
       </c>
       <c r="C629" s="1" t="s">
         <v>1088</v>
@@ -21483,23 +21486,23 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
-        <v>1065</v>
+        <v>537</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>1123</v>
+        <v>1072</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>1794</v>
+        <v>1088</v>
       </c>
       <c r="E630" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
-        <v>434</v>
+        <v>1163</v>
       </c>
       <c r="C631" s="1" t="s">
         <v>1088</v>
@@ -21510,18 +21513,21 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
-        <v>944</v>
+        <v>985</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C632" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E632" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
-        <v>1676</v>
+        <v>1084</v>
       </c>
       <c r="B633" s="1" t="s">
         <v>1072</v>
@@ -21533,26 +21539,26 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
-        <v>805</v>
+        <v>1065</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1123</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>1088</v>
+        <v>1794</v>
       </c>
       <c r="E634" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="635" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>1536</v>
+        <v>434</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1784</v>
+        <v>1088</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>1735</v>
@@ -21560,7 +21566,7 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
-        <v>1621</v>
+        <v>944</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>1088</v>
@@ -21571,21 +21577,21 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
-        <v>1371</v>
+        <v>1676</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>1072</v>
+        <v>805</v>
       </c>
       <c r="C638" s="1" t="s">
         <v>1088</v>
@@ -21594,12 +21600,15 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
-        <v>1349</v>
+        <v>371</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1536</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>1088</v>
+        <v>1784</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>1735</v>
@@ -21607,7 +21616,7 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
-        <v>693</v>
+        <v>1621</v>
       </c>
       <c r="C640" s="1" t="s">
         <v>1088</v>
@@ -21618,7 +21627,7 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
-        <v>1262</v>
+        <v>1371</v>
       </c>
       <c r="C641" s="1" t="s">
         <v>1088</v>
@@ -21629,18 +21638,21 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
-        <v>627</v>
+        <v>1349</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C642" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
-        <v>708</v>
+        <v>1349</v>
       </c>
       <c r="C643" s="1" t="s">
         <v>1088</v>
@@ -21651,101 +21663,95 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
-        <v>995</v>
+        <v>693</v>
       </c>
       <c r="C644" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
-        <v>75</v>
+        <v>1262</v>
       </c>
       <c r="C645" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
-        <v>1537</v>
+        <v>627</v>
       </c>
       <c r="C646" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
-        <v>1038</v>
+        <v>995</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" s="1" t="s">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="650" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>1569</v>
+        <v>1537</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>1797</v>
+        <v>1088</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>1072</v>
+        <v>903</v>
       </c>
       <c r="C651" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" s="1" t="s">
-        <v>1724</v>
+        <v>1038</v>
       </c>
       <c r="C652" s="1" t="s">
         <v>1088</v>
@@ -21756,51 +21762,57 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" s="1" t="s">
-        <v>1385</v>
+        <v>362</v>
       </c>
       <c r="C653" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A654" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1569</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>1088</v>
+        <v>1797</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" s="1" t="s">
-        <v>1055</v>
+        <v>845</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" s="1" t="s">
-        <v>1015</v>
+        <v>1724</v>
       </c>
       <c r="C656" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" s="1" t="s">
-        <v>1609</v>
+        <v>1385</v>
       </c>
       <c r="C657" s="1" t="s">
         <v>1088</v>
@@ -21811,29 +21823,29 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" s="1" t="s">
-        <v>1152</v>
+        <v>1014</v>
       </c>
       <c r="C658" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" s="1" t="s">
-        <v>1154</v>
+        <v>1055</v>
       </c>
       <c r="C659" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E659" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" s="1" t="s">
-        <v>1153</v>
+        <v>1015</v>
       </c>
       <c r="C660" s="1" t="s">
         <v>1088</v>
@@ -21844,43 +21856,40 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" s="1" t="s">
-        <v>1596</v>
+        <v>1609</v>
       </c>
       <c r="C661" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E661" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="1" t="s">
-        <v>348</v>
+        <v>1152</v>
       </c>
       <c r="C662" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D662" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E662" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="1" t="s">
-        <v>350</v>
+        <v>1154</v>
       </c>
       <c r="C663" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E663" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="1" t="s">
-        <v>1438</v>
+        <v>1153</v>
       </c>
       <c r="C664" s="1" t="s">
         <v>1088</v>
@@ -21891,85 +21900,79 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" s="1" t="s">
-        <v>1439</v>
+        <v>1596</v>
       </c>
       <c r="C665" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" s="1" t="s">
-        <v>844</v>
+        <v>348</v>
       </c>
       <c r="C666" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D666" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E666" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" s="1" t="s">
-        <v>843</v>
+        <v>350</v>
       </c>
       <c r="C667" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E667" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" s="1" t="s">
-        <v>952</v>
+        <v>1438</v>
       </c>
       <c r="C668" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E668" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>1072</v>
+        <v>1439</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E669" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" s="1" t="s">
-        <v>1378</v>
+        <v>844</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D670" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E670" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" s="1" t="s">
-        <v>928</v>
+        <v>843</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D671" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>1735</v>
@@ -21977,38 +21980,38 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" s="1" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="C672" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D672" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E672" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" s="1" t="s">
-        <v>1260</v>
+        <v>981</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C673" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D673" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E673" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" s="1" t="s">
-        <v>1441</v>
+        <v>1378</v>
       </c>
       <c r="C674" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>1733</v>
@@ -22016,38 +22019,41 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>1190</v>
+        <v>928</v>
       </c>
       <c r="C675" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D675" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E675" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" s="1" t="s">
-        <v>1231</v>
+        <v>931</v>
       </c>
       <c r="C676" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D676" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E676" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>1072</v>
+        <v>1260</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>1088</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>1426</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>1735</v>
@@ -22055,99 +22061,96 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>1072</v>
+        <v>1441</v>
       </c>
       <c r="C678" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E678" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="1" t="s">
-        <v>394</v>
+        <v>1004</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1190</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E679" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" s="1" t="s">
-        <v>395</v>
+        <v>1231</v>
       </c>
       <c r="C680" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E680" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" s="1" t="s">
-        <v>1717</v>
+        <v>1266</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E681" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" s="1" t="s">
-        <v>1645</v>
+        <v>393</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C682" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E682" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" s="1" t="s">
-        <v>930</v>
+        <v>394</v>
       </c>
       <c r="C683" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E683" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>1072</v>
+        <v>395</v>
       </c>
       <c r="C684" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E684" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>156</v>
+        <v>1717</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D685" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E685" s="2" t="s">
         <v>1734</v>
@@ -22155,32 +22158,29 @@
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686" s="1" t="s">
-        <v>225</v>
+        <v>1645</v>
       </c>
       <c r="C686" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E686" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="B687" s="1" t="s">
-        <v>1072</v>
+        <v>930</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E687" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688" s="1" t="s">
-        <v>1321</v>
+        <v>1302</v>
       </c>
       <c r="B688" s="1" t="s">
         <v>1072</v>
@@ -22189,40 +22189,40 @@
         <v>1088</v>
       </c>
       <c r="E688" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689" s="1" t="s">
-        <v>752</v>
+        <v>433</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>1072</v>
+        <v>156</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D689" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E689" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B690" s="1" t="s">
-        <v>1072</v>
+        <v>225</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E690" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" s="1" t="s">
-        <v>1098</v>
+        <v>958</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>1072</v>
@@ -22231,12 +22231,12 @@
         <v>1088</v>
       </c>
       <c r="E691" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" s="1" t="s">
-        <v>725</v>
+        <v>1321</v>
       </c>
       <c r="B692" s="1" t="s">
         <v>1072</v>
@@ -22245,12 +22245,12 @@
         <v>1088</v>
       </c>
       <c r="E692" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" s="1" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>1072</v>
@@ -22259,12 +22259,15 @@
         <v>1088</v>
       </c>
       <c r="E693" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" s="1" t="s">
-        <v>363</v>
+        <v>234</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C694" s="1" t="s">
         <v>1088</v>
@@ -22275,7 +22278,7 @@
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" s="1" t="s">
-        <v>158</v>
+        <v>1098</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1072</v>
@@ -22289,43 +22292,49 @@
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" s="1" t="s">
-        <v>1048</v>
+        <v>725</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E696" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" s="1" t="s">
-        <v>1271</v>
+        <v>724</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C697" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E697" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>1072</v>
+        <v>363</v>
       </c>
       <c r="C698" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E698" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" s="1" t="s">
-        <v>1059</v>
+        <v>158</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C699" s="1" t="s">
         <v>1088</v>
@@ -22336,10 +22345,7 @@
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" s="1" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>1072</v>
+        <v>1048</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>1088</v>
@@ -22350,10 +22356,7 @@
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B701" s="1" t="s">
-        <v>1072</v>
+        <v>1271</v>
       </c>
       <c r="C701" s="1" t="s">
         <v>1088</v>
@@ -22364,7 +22367,7 @@
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" s="1" t="s">
-        <v>525</v>
+        <v>1058</v>
       </c>
       <c r="B702" s="1" t="s">
         <v>1072</v>
@@ -22373,34 +22376,40 @@
         <v>1088</v>
       </c>
       <c r="E702" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" s="1" t="s">
-        <v>524</v>
+        <v>1059</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E703" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" s="1" t="s">
-        <v>370</v>
+        <v>1060</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E704" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705" s="1" t="s">
-        <v>738</v>
+        <v>1057</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C705" s="1" t="s">
         <v>1088</v>
@@ -22411,68 +22420,65 @@
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706" s="1" t="s">
-        <v>1029</v>
+        <v>525</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C706" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E706" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>1072</v>
+        <v>524</v>
       </c>
       <c r="C707" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E707" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>1072</v>
+        <v>370</v>
       </c>
       <c r="C708" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E708" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709" s="1" t="s">
-        <v>89</v>
+        <v>738</v>
       </c>
       <c r="C709" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E709" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710" s="1" t="s">
-        <v>88</v>
+        <v>1029</v>
       </c>
       <c r="C710" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E710" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711" s="1" t="s">
-        <v>372</v>
+        <v>1315</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>1072</v>
@@ -22486,29 +22492,32 @@
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712" s="1" t="s">
-        <v>1111</v>
+        <v>833</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C712" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E712" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713" s="1" t="s">
-        <v>1620</v>
+        <v>89</v>
       </c>
       <c r="C713" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E713" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714" s="1" t="s">
-        <v>1538</v>
+        <v>88</v>
       </c>
       <c r="C714" s="1" t="s">
         <v>1088</v>
@@ -22517,120 +22526,117 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="715" spans="1:5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" s="1" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>1755</v>
+        <v>1072</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D715" s="1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="E715" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E715" s="2" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716" s="1" t="s">
-        <v>1280</v>
+        <v>1111</v>
       </c>
       <c r="C716" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E716" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717" s="1" t="s">
-        <v>1279</v>
+        <v>1620</v>
       </c>
       <c r="C717" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E717" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718" s="1" t="s">
-        <v>1132</v>
+        <v>1538</v>
       </c>
       <c r="C718" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A719" s="1" t="s">
-        <v>1133</v>
+        <v>412</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1755</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E719" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E719" s="1" t="s">
         <v>1735</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>1072</v>
+        <v>1280</v>
       </c>
       <c r="C720" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E720" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" s="1" t="s">
-        <v>1572</v>
+        <v>1279</v>
       </c>
       <c r="C721" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E721" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" s="1" t="s">
-        <v>806</v>
+        <v>1132</v>
       </c>
       <c r="C722" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D722" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E722" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" s="1" t="s">
-        <v>807</v>
+        <v>1133</v>
       </c>
       <c r="C723" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E723" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" s="1" t="s">
-        <v>1006</v>
+        <v>1301</v>
       </c>
       <c r="B724" s="1" t="s">
         <v>1072</v>
@@ -22639,71 +22645,65 @@
         <v>1088</v>
       </c>
       <c r="E724" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>660</v>
+        <v>1572</v>
       </c>
       <c r="C725" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E725" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B726" s="1" t="s">
-        <v>1539</v>
+        <v>806</v>
       </c>
       <c r="C726" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D726" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E726" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>1072</v>
+        <v>807</v>
       </c>
       <c r="C727" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E727" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" s="1" t="s">
-        <v>640</v>
+        <v>1006</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>1379</v>
+        <v>1072</v>
       </c>
       <c r="C728" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E728" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="1" t="s">
-        <v>1318</v>
+        <v>659</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>1072</v>
+        <v>660</v>
       </c>
       <c r="C729" s="1" t="s">
         <v>1088</v>
@@ -22714,21 +22714,24 @@
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="1" t="s">
-        <v>203</v>
+        <v>573</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>1072</v>
+        <v>1539</v>
       </c>
       <c r="C730" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E730" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="1" t="s">
-        <v>368</v>
+        <v>904</v>
+      </c>
+      <c r="B731" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C731" s="1" t="s">
         <v>1088</v>
@@ -22739,21 +22742,21 @@
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
-        <v>983</v>
+        <v>640</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>1072</v>
+        <v>1379</v>
       </c>
       <c r="C732" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E732" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
-        <v>964</v>
+        <v>1318</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>1072</v>
@@ -22762,12 +22765,12 @@
         <v>1088</v>
       </c>
       <c r="E733" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="1" t="s">
-        <v>1215</v>
+        <v>203</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>1072</v>
@@ -22776,26 +22779,23 @@
         <v>1088</v>
       </c>
       <c r="E734" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>1072</v>
+        <v>368</v>
       </c>
       <c r="C735" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E735" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" s="1" t="s">
-        <v>1337</v>
+        <v>983</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>1072</v>
@@ -22804,12 +22804,15 @@
         <v>1088</v>
       </c>
       <c r="E736" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" s="1" t="s">
-        <v>742</v>
+        <v>964</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C737" s="1" t="s">
         <v>1088</v>
@@ -22820,7 +22823,10 @@
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" s="1" t="s">
-        <v>743</v>
+        <v>1215</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C738" s="1" t="s">
         <v>1088</v>
@@ -22831,7 +22837,10 @@
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" s="1" t="s">
-        <v>1671</v>
+        <v>1307</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>1088</v>
@@ -22842,21 +22851,21 @@
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" s="1" t="s">
-        <v>949</v>
+        <v>1337</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D740" s="2" t="s">
-        <v>1426</v>
-      </c>
       <c r="E740" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" s="1" t="s">
-        <v>435</v>
+        <v>742</v>
       </c>
       <c r="C741" s="1" t="s">
         <v>1088</v>
@@ -22867,49 +22876,43 @@
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" s="1" t="s">
-        <v>822</v>
+        <v>743</v>
       </c>
       <c r="C742" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E742" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B743" s="1" t="s">
-        <v>1072</v>
+        <v>1671</v>
       </c>
       <c r="C743" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E743" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A744" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>1072</v>
+      <c r="A744" s="1" t="s">
+        <v>949</v>
       </c>
       <c r="C744" s="1" t="s">
         <v>1088</v>
       </c>
+      <c r="D744" s="2" t="s">
+        <v>1426</v>
+      </c>
       <c r="E744" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>1072</v>
+        <v>435</v>
       </c>
       <c r="C745" s="1" t="s">
         <v>1088</v>
@@ -22920,10 +22923,7 @@
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>1072</v>
+        <v>822</v>
       </c>
       <c r="C746" s="1" t="s">
         <v>1088</v>
@@ -22934,7 +22934,7 @@
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747" s="1" t="s">
-        <v>1654</v>
+        <v>823</v>
       </c>
       <c r="B747" s="1" t="s">
         <v>1072</v>
@@ -22943,12 +22943,12 @@
         <v>1088</v>
       </c>
       <c r="E747" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A748" s="1" t="s">
-        <v>1655</v>
+      <c r="A748" t="s">
+        <v>1656</v>
       </c>
       <c r="B748" s="1" t="s">
         <v>1072</v>
@@ -22957,12 +22957,12 @@
         <v>1088</v>
       </c>
       <c r="E748" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" s="1" t="s">
-        <v>994</v>
+        <v>892</v>
       </c>
       <c r="B749" s="1" t="s">
         <v>1072</v>
@@ -22976,7 +22976,7 @@
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750" s="1" t="s">
-        <v>421</v>
+        <v>1653</v>
       </c>
       <c r="B750" s="1" t="s">
         <v>1072</v>
@@ -22985,12 +22985,12 @@
         <v>1088</v>
       </c>
       <c r="E750" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751" s="1" t="s">
-        <v>136</v>
+        <v>1654</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>1072</v>
@@ -23004,7 +23004,10 @@
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752" s="1" t="s">
-        <v>771</v>
+        <v>1655</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C752" s="1" t="s">
         <v>1088</v>
@@ -23015,18 +23018,21 @@
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" s="1" t="s">
-        <v>1259</v>
+        <v>994</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C753" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E753" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A754" s="1" t="s">
-        <v>1031</v>
+        <v>421</v>
       </c>
       <c r="B754" s="1" t="s">
         <v>1072</v>
@@ -23040,7 +23046,7 @@
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A755" s="1" t="s">
-        <v>967</v>
+        <v>136</v>
       </c>
       <c r="B755" s="1" t="s">
         <v>1072</v>
@@ -23049,40 +23055,34 @@
         <v>1088</v>
       </c>
       <c r="E755" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A756" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B756" s="1" t="s">
-        <v>1072</v>
+      <c r="A756" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="C756" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E756" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B757" s="1" t="s">
-        <v>1072</v>
+        <v>1259</v>
       </c>
       <c r="C757" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E757" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758" s="1" t="s">
-        <v>1265</v>
+        <v>1031</v>
       </c>
       <c r="B758" s="1" t="s">
         <v>1072</v>
@@ -23091,45 +23091,57 @@
         <v>1088</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
-        <v>835</v>
+        <v>967</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C759" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E759" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A760" s="1" t="s">
-        <v>1566</v>
+      <c r="A760" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C760" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E760" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
-        <v>1277</v>
+        <v>1050</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C761" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E761" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" s="1" t="s">
-        <v>1278</v>
+        <v>1265</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C762" s="1" t="s">
         <v>1088</v>
@@ -23140,60 +23152,51 @@
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" s="1" t="s">
-        <v>1591</v>
+        <v>835</v>
       </c>
       <c r="C763" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E763" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" s="1" t="s">
-        <v>1200</v>
+        <v>1566</v>
       </c>
       <c r="C764" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E764" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>1072</v>
+        <v>1277</v>
       </c>
       <c r="C765" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E765" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" s="1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>1072</v>
+        <v>1278</v>
       </c>
       <c r="C766" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E766" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" s="1" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B767" s="1" t="s">
-        <v>1072</v>
+        <v>1591</v>
       </c>
       <c r="C767" s="1" t="s">
         <v>1088</v>
@@ -23204,10 +23207,7 @@
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>1072</v>
+        <v>1200</v>
       </c>
       <c r="C768" s="1" t="s">
         <v>1088</v>
@@ -23218,7 +23218,10 @@
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" s="1" t="s">
-        <v>1099</v>
+        <v>763</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C769" s="1" t="s">
         <v>1088</v>
@@ -23229,32 +23232,35 @@
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" s="1" t="s">
-        <v>727</v>
+        <v>1291</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C770" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E770" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" s="1" t="s">
-        <v>1225</v>
+        <v>1540</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>1226</v>
+        <v>1072</v>
       </c>
       <c r="C771" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E771" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" s="1" t="s">
-        <v>254</v>
+        <v>1573</v>
       </c>
       <c r="B772" s="1" t="s">
         <v>1072</v>
@@ -23268,10 +23274,7 @@
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B773" s="1" t="s">
-        <v>1072</v>
+        <v>1099</v>
       </c>
       <c r="C773" s="1" t="s">
         <v>1088</v>
@@ -23282,49 +23285,49 @@
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>1072</v>
+        <v>727</v>
       </c>
       <c r="C774" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E774" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" s="1" t="s">
-        <v>253</v>
+        <v>1225</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>1072</v>
+        <v>1226</v>
       </c>
       <c r="C775" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E775" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" s="1" t="s">
-        <v>851</v>
+        <v>254</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C776" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E776" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" s="1" t="s">
-        <v>1507</v>
+        <v>1043</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>1379</v>
+        <v>1072</v>
       </c>
       <c r="C777" s="1" t="s">
         <v>1088</v>
@@ -23335,7 +23338,10 @@
     </row>
     <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" s="1" t="s">
-        <v>1093</v>
+        <v>255</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C778" s="1" t="s">
         <v>1088</v>
@@ -23346,7 +23352,7 @@
     </row>
     <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" s="1" t="s">
-        <v>950</v>
+        <v>253</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>1072</v>
@@ -23354,27 +23360,27 @@
       <c r="C779" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="D779" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E779" s="2">
-        <v>2</v>
+      <c r="E779" s="2" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" s="1" t="s">
-        <v>126</v>
+        <v>851</v>
       </c>
       <c r="C780" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E780" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" s="1" t="s">
-        <v>1541</v>
+        <v>1507</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1379</v>
       </c>
       <c r="C781" s="1" t="s">
         <v>1088</v>
@@ -23385,73 +23391,79 @@
     </row>
     <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" s="1" t="s">
-        <v>349</v>
+        <v>1093</v>
       </c>
       <c r="C782" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E782" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" s="1" t="s">
-        <v>351</v>
+        <v>950</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C783" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="E783" s="2" t="s">
-        <v>1734</v>
+      <c r="D783" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E783" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A784" s="1" t="s">
-        <v>998</v>
+        <v>126</v>
       </c>
       <c r="C784" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E784" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="1" t="s">
-        <v>997</v>
+        <v>1541</v>
       </c>
       <c r="C785" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E785" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" s="1" t="s">
-        <v>1233</v>
+        <v>349</v>
       </c>
       <c r="C786" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E786" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" s="1" t="s">
-        <v>999</v>
+        <v>351</v>
       </c>
       <c r="C787" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E787" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C788" s="1" t="s">
         <v>1088</v>
@@ -23462,7 +23474,7 @@
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C789" s="1" t="s">
         <v>1088</v>
@@ -23473,51 +23485,51 @@
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" s="1" t="s">
-        <v>1417</v>
+        <v>1233</v>
       </c>
       <c r="C790" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E790" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" s="1" t="s">
-        <v>1542</v>
+        <v>999</v>
       </c>
       <c r="C791" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E791" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" s="1" t="s">
-        <v>1543</v>
+        <v>1000</v>
       </c>
       <c r="C792" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E792" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" s="1" t="s">
-        <v>1416</v>
+        <v>1001</v>
       </c>
       <c r="C793" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E793" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" s="1" t="s">
-        <v>1242</v>
+        <v>1417</v>
       </c>
       <c r="C794" s="1" t="s">
         <v>1088</v>
@@ -23528,63 +23540,51 @@
     </row>
     <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>1072</v>
+        <v>1542</v>
       </c>
       <c r="C795" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E795" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>1072</v>
+        <v>1543</v>
       </c>
       <c r="C796" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E796" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>1072</v>
+        <v>1416</v>
       </c>
       <c r="C797" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E797" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>1072</v>
+        <v>1242</v>
       </c>
       <c r="C798" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E798" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="1" t="s">
-        <v>1309</v>
+        <v>1709</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>1072</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="1" t="s">
-        <v>242</v>
+        <v>765</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>1072</v>
@@ -23607,12 +23607,12 @@
         <v>1088</v>
       </c>
       <c r="E800" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="801" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A801" s="1" t="s">
-        <v>220</v>
+        <v>774</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>1072</v>
@@ -23621,34 +23621,40 @@
         <v>1088</v>
       </c>
       <c r="E801" s="2" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802" s="1" t="s">
-        <v>1008</v>
+        <v>766</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C802" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E802" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803" s="1" t="s">
-        <v>1547</v>
+        <v>1309</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C803" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E803" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="804" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A804" s="1" t="s">
-        <v>869</v>
+        <v>242</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>1072</v>
@@ -23662,43 +23668,46 @@
     </row>
     <row r="805" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A805" s="1" t="s">
-        <v>79</v>
+        <v>220</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C805" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E805" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A806" s="1" t="s">
-        <v>1085</v>
+        <v>1008</v>
       </c>
       <c r="C806" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E806" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B807" s="1" t="s">
-        <v>1072</v>
+        <v>1547</v>
       </c>
       <c r="C807" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E807" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="808" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A808" s="3" t="s">
-        <v>1327</v>
+      <c r="A808" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C808" s="1" t="s">
         <v>1088</v>
@@ -23709,21 +23718,18 @@
     </row>
     <row r="809" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A809" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="B809" s="1" t="s">
-        <v>1072</v>
+        <v>79</v>
       </c>
       <c r="C809" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E809" s="2" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="810" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A810" s="3" t="s">
-        <v>336</v>
+      <c r="A810" s="1" t="s">
+        <v>1085</v>
       </c>
       <c r="C810" s="1" t="s">
         <v>1088</v>
@@ -23734,7 +23740,10 @@
     </row>
     <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811" s="1" t="s">
-        <v>1390</v>
+        <v>35</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C811" s="1" t="s">
         <v>1088</v>
@@ -23744,8 +23753,8 @@
       </c>
     </row>
     <row r="812" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A812" s="1" t="s">
-        <v>1392</v>
+      <c r="A812" s="3" t="s">
+        <v>1327</v>
       </c>
       <c r="C812" s="1" t="s">
         <v>1088</v>
@@ -23756,32 +23765,32 @@
     </row>
     <row r="813" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A813" s="1" t="s">
-        <v>1393</v>
+        <v>929</v>
+      </c>
+      <c r="B813" s="1" t="s">
+        <v>1072</v>
       </c>
       <c r="C813" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E813" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="814" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A814" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B814" s="1" t="s">
-        <v>1770</v>
+      <c r="A814" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="C814" s="1" t="s">
-        <v>1777</v>
+        <v>1088</v>
       </c>
       <c r="E814" s="2" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="815" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A815" s="1" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="C815" s="1" t="s">
         <v>1088</v>
@@ -23792,13 +23801,10 @@
     </row>
     <row r="816" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A816" s="1" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="C816" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D816" s="2" t="s">
-        <v>1426</v>
       </c>
       <c r="E816" s="2" t="s">
         <v>1735</v>
@@ -23806,29 +23812,79 @@
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" s="1" t="s">
-        <v>1544</v>
+        <v>1393</v>
       </c>
       <c r="C817" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="E817" s="2" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E818" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A819" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E819" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A820" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E820" s="2" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A821" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E821" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A822" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="C818" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E818" s="2" t="s">
+      <c r="C822" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E822" s="2" t="s">
         <v>1733</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C770">
-    <sortCondition ref="A730"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C774">
+    <sortCondition ref="A734"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23844,7 +23900,7 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -24681,7 +24737,7 @@
       <selection pane="bottomLeft" activeCell="B84" sqref="B84:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.81640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.7265625" style="2" bestFit="1" customWidth="1"/>
@@ -25438,7 +25494,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7265625" style="1" customWidth="1"/>
@@ -25703,7 +25759,7 @@
       <selection activeCell="C25" sqref="A1:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
@@ -25926,7 +25982,7 @@
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" bestFit="1" customWidth="1"/>
@@ -26462,7 +26518,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.7265625" style="2" bestFit="1" customWidth="1"/>

--- a/src/main/java/net/clementlevallois/umigon/heuristics/resources/en/en.xlsx
+++ b/src/main/java/net/clementlevallois/umigon/heuristics/resources/en/en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levallois\Google Drive\open\UmigonLambda\umigon-heuristics\src\main\java\net\clementlevallois\umigon\heuristics\resources\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC009A-042E-4391-9FDA-AB490CB29D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B049A735-6C87-46B8-9726-80CE35EEAF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="871" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="871" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="8" r:id="rId1"/>
@@ -23946,7 +23946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A550E3-CE74-4DC4-8CE4-1371722C8225}">
   <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -26600,9 +26600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84:C84"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
